--- a/server/data/supplier/modifiedSupplier.xlsx
+++ b/server/data/supplier/modifiedSupplier.xlsx
@@ -397,13 +397,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A70"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Display Name As</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Company</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Billing Address Line 1</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Billing Address Line 2</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Billing Address City</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Ackermans</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Agent</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Airtime Topup</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ATM Cash</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Battery Master</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Best Pine</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Caltex</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Cash Send</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Checkers</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Consulting</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Daisy1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Debonaires</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>EasyBiz Tech Pty Ltd</v>
+      </c>
+      <c r="B14" t="str">
+        <v>EasyBiz Tech Pty Ltd</v>
+      </c>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">5 Zulberg Close_x000d__x000d_
+Cnr ernest Openheimer_x000d__x000d_
+Bruma_x000d_
+Bruma</v>
+      </c>
+      <c r="D14" t="str" xml:space="preserve">
+        <v xml:space="preserve">5 Zulberg Close_x000d__x000d_
+Cnr ernest Openheimer_x000d__x000d_
+Bruma</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Bruma</v>
+      </c>
+      <c r="F14" t="str">
+        <v>emmanuel.fousteris@easybiztech.co.za</v>
+      </c>
+      <c r="G14">
+        <v>102034300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Engen</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Filcor Motors</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Gardner</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>HM Revenue &amp; Customs</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Honchos</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Intuit QuickBooks</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Japan Auto</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>KFC</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>McDonalds</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Medical Expenses</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Nandos</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Ok Furniture</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Overseas</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Polar</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Purchase</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Rage</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Refiloe Msiza Designs</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>SARS</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Sibusiso Mnisi</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Sizwe Khoza</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Spar</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Spares Wise</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Spitz</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Stokvel</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Test</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Usave</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Zama Mabuza Supplier</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Zama Ngwenya</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A70"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G42"/>
   </ignoredErrors>
 </worksheet>
 </file>